--- a/Excel File 1.xlsx
+++ b/Excel File 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Mini-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C31AC1-A402-418C-AF59-1B53D4BAFF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28416F2B-66DC-42D3-A43C-CB69D558F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>PJR2022210</t>
   </si>
   <si>
-    <t>Chee Ching</t>
-  </si>
-  <si>
     <t>3/18/2022 11:02</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>SOWVA</t>
+  </si>
+  <si>
+    <t>aik wei</t>
   </si>
 </sst>
 </file>
@@ -150,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +436,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,49 +459,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -517,16 +518,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -547,27 +548,30 @@
         <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
+      <c r="G3" s="1">
+        <v>45509</v>
       </c>
     </row>
   </sheetData>

--- a/Excel File 1.xlsx
+++ b/Excel File 1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Mini-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28416F2B-66DC-42D3-A43C-CB69D558F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A0E472-AECA-4E86-AD84-306B490A8A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$19</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,103 +28,289 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>Averis</t>
   </si>
   <si>
-    <t>Averis Sdn Bhd</t>
-  </si>
-  <si>
-    <t>Bug fix bla bla</t>
-  </si>
-  <si>
-    <t>PJR2022210</t>
-  </si>
-  <si>
-    <t>3/18/2022 11:02</t>
-  </si>
-  <si>
-    <t>Support-SAP HR</t>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>PR No</t>
+  </si>
+  <si>
+    <t>SOW No</t>
+  </si>
+  <si>
+    <t>Requestor</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Working Group</t>
+  </si>
+  <si>
+    <t>Budgeted</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PJR202418</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>PR No</t>
-  </si>
-  <si>
-    <t>SOW No</t>
-  </si>
-  <si>
-    <t>Requestor</t>
-  </si>
-  <si>
-    <t>Created Date</t>
-  </si>
-  <si>
-    <t>Working Group</t>
-  </si>
-  <si>
-    <t>Budgeted</t>
-  </si>
-  <si>
-    <t>Benefits</t>
-  </si>
-  <si>
-    <t>Savings</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Budget Amount</t>
-  </si>
-  <si>
-    <t>Scoping Time Lead</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>PR004</t>
-  </si>
-  <si>
-    <t>aiodghop</t>
-  </si>
-  <si>
-    <t>WIOJEGIOH</t>
-  </si>
-  <si>
-    <t>SVJOI</t>
-  </si>
-  <si>
-    <t>ioasjvo</t>
-  </si>
-  <si>
-    <t>vaerh</t>
-  </si>
-  <si>
-    <t>SOWVA</t>
-  </si>
-  <si>
-    <t>aik wei</t>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Scoping</t>
+  </si>
+  <si>
+    <t>Ace Digital</t>
+  </si>
+  <si>
+    <t>Ace Resou</t>
+  </si>
+  <si>
+    <t>To start the process of RHEL support</t>
+  </si>
+  <si>
+    <t>PJR202410</t>
+  </si>
+  <si>
+    <t>SOWVAC20422</t>
+  </si>
+  <si>
+    <t>4/30/2024 2:51</t>
+  </si>
+  <si>
+    <t>IT Infra Ops</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Setup AWS Hybrid Cloud</t>
+  </si>
+  <si>
+    <t>PJR202419</t>
+  </si>
+  <si>
+    <t>Projects-Digital Palm/Corporate</t>
+  </si>
+  <si>
+    <t>Asia Honol</t>
+  </si>
+  <si>
+    <t>To change PR Approval workflow; D</t>
+  </si>
+  <si>
+    <t>PJR202423</t>
+  </si>
+  <si>
+    <t>SOWVAC20423</t>
+  </si>
+  <si>
+    <t>Tay Chua Beng</t>
+  </si>
+  <si>
+    <t>1/26/2024 8:16</t>
+  </si>
+  <si>
+    <t>Support-SAP Logistics</t>
+  </si>
+  <si>
+    <t>AHP</t>
+  </si>
+  <si>
+    <t>Insert "safety stock level" to Report</t>
+  </si>
+  <si>
+    <t>PJR202431</t>
+  </si>
+  <si>
+    <t>Chong Boon Pin</t>
+  </si>
+  <si>
+    <t>PJR202460</t>
+  </si>
+  <si>
+    <t>PJR202462</t>
+  </si>
+  <si>
+    <t>3/13/2024 2:11</t>
+  </si>
+  <si>
+    <t>Upgrade AHP existing exchange server</t>
+  </si>
+  <si>
+    <t>Joey Tan Kheng Joe</t>
+  </si>
+  <si>
+    <t>4/26/2024 8:53</t>
+  </si>
+  <si>
+    <t>Projects-IT Infra</t>
+  </si>
+  <si>
+    <t>Implementation of AHP OT DMZ</t>
+  </si>
+  <si>
+    <t>PJR202430</t>
+  </si>
+  <si>
+    <t>5/20/2024 8:34</t>
+  </si>
+  <si>
+    <t>Averis Sdn</t>
+  </si>
+  <si>
+    <t>Ariba - add publish approval for all t</t>
+  </si>
+  <si>
+    <t>PJR202421</t>
+  </si>
+  <si>
+    <t>SOWVAV204363</t>
+  </si>
+  <si>
+    <t>Agnes Lai</t>
+  </si>
+  <si>
+    <t>Project-Ariba COE</t>
+  </si>
+  <si>
+    <t>Bracell BSC</t>
+  </si>
+  <si>
+    <t>Bahia Spec</t>
+  </si>
+  <si>
+    <t>Maintenance Inspection Routes - M</t>
+  </si>
+  <si>
+    <t>PJR202416</t>
+  </si>
+  <si>
+    <t>Camila Pinheiro da S</t>
+  </si>
+  <si>
+    <t>Digital EA</t>
+  </si>
+  <si>
+    <t>Pamcard System Implementation at</t>
+  </si>
+  <si>
+    <t>PJR202417</t>
+  </si>
+  <si>
+    <t>Edgard Francisco La</t>
+  </si>
+  <si>
+    <t>People Analytics</t>
+  </si>
+  <si>
+    <t>Diego Figueiredo Mo</t>
+  </si>
+  <si>
+    <t>7/22/2024 14:23</t>
+  </si>
+  <si>
+    <t>BPN - Bracell Papéis (PJR2024965)</t>
+  </si>
+  <si>
+    <t>PJR20241384</t>
+  </si>
+  <si>
+    <t>Artur Leandro Bianch</t>
+  </si>
+  <si>
+    <t>Projects-Workday</t>
+  </si>
+  <si>
+    <t>To show the customer Tax Reference</t>
+  </si>
+  <si>
+    <t>PJR202480</t>
+  </si>
+  <si>
+    <t>Teo Siew Siew</t>
+  </si>
+  <si>
+    <t>Bracell BSP</t>
+  </si>
+  <si>
+    <t>Bracell Sac</t>
+  </si>
+  <si>
+    <t>SGF Upgrade</t>
+  </si>
+  <si>
+    <t>PJR202451</t>
+  </si>
+  <si>
+    <t>SOWVBP20249</t>
+  </si>
+  <si>
+    <t>Diego Figueiredo Mc</t>
+  </si>
+  <si>
+    <t>2/29/2024 13:00</t>
+  </si>
+  <si>
+    <t>Change Management</t>
+  </si>
+  <si>
+    <t>Change Management Support for S4</t>
+  </si>
+  <si>
+    <t>PJR202456</t>
+  </si>
+  <si>
+    <t>SOWVBP202410</t>
+  </si>
+  <si>
+    <t>Luiz Fernando Regin</t>
+  </si>
+  <si>
+    <t>SOWVBP202410.1</t>
+  </si>
+  <si>
+    <t>Sean Chow</t>
+  </si>
+  <si>
+    <t>SOW123</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,19 +318,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -150,9 +370,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,148 +664,958 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>96</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>96</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45448.40902777778</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2364400</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>10</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>11</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45293.296527777777</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>59</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45599.056250000001</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>24</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>130</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>14</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45352.304861111108</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45572.731249999997</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>44</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45603.804166666669</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M13" s="2">
+        <v>43</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>37</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45449.111111111109</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>68</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45326.328472222223</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>27</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.1</v>
-      </c>
-      <c r="K2">
-        <v>0.1</v>
-      </c>
-      <c r="L2">
-        <v>0.1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45509</v>
+    </row>
+    <row r="17" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>12</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45415.572916666664</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>9</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45415.572916666664</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Change Management"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>